--- a/espn_scrapper/IPL/Royal Challengers Bangalore/Isuru Udana .xlsx
+++ b/espn_scrapper/IPL/Royal Challengers Bangalore/Isuru Udana .xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -577,9 +577,44 @@
         <v>33.33</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v xml:space="preserve"> Oct 15 2020</v>
+      </c>
+      <c r="B6" t="str">
+        <v xml:space="preserve"> Sharjah</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Kings XI won by 8 wickets</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="F6" t="str">
+        <v xml:space="preserve">Isuru Udana </v>
+      </c>
+      <c r="G6" t="str">
+        <v>10</v>
+      </c>
+      <c r="H6" t="str">
+        <v>5</v>
+      </c>
+      <c r="I6" t="str">
+        <v>0</v>
+      </c>
+      <c r="J6" t="str">
+        <v>1</v>
+      </c>
+      <c r="K6" t="str">
+        <v>200.00</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
   </ignoredErrors>
 </worksheet>
 </file>